--- a/reports/PP_2_6_3_B2_P2_2025-08-22.xlsx
+++ b/reports/PP_2_6_3_B2_P2_2025-08-22.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -746,10 +746,59 @@
           <t>Pass</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>2025-08-22 13:15:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Playwright_test_set</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>TEST-0608</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>[Errno 13] Permission denied: 'data/AutomationChips.xlsx'</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2025-08-22 15:52:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Playwright_test_set</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>TEST-0608</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2025-08-22 15:58:30</t>
         </is>
       </c>
     </row>
